--- a/DLC_test.xlsx
+++ b/DLC_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>index</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>S01-011</t>
+  </si>
+  <si>
+    <t>S01-003</t>
   </si>
   <si>
     <t>S01-013</t>
@@ -1276,10 +1279,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:LM101"/>
+  <dimension ref="A1:LM102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
@@ -20045,10 +20048,334 @@
       <c r="LL58" s="3"/>
       <c r="LM58" s="3"/>
     </row>
-    <row r="59" ht="17.4" spans="1:1">
+    <row r="59" ht="17.4" spans="1:325">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="3"/>
+      <c r="AM59" s="3"/>
+      <c r="AN59" s="3"/>
+      <c r="AO59" s="3"/>
+      <c r="AP59" s="3"/>
+      <c r="AQ59" s="3"/>
+      <c r="AR59" s="3"/>
+      <c r="AS59" s="3"/>
+      <c r="AT59" s="3"/>
+      <c r="AU59" s="3"/>
+      <c r="AV59" s="3"/>
+      <c r="AW59" s="3"/>
+      <c r="AX59" s="3"/>
+      <c r="AY59" s="3"/>
+      <c r="AZ59" s="3"/>
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
+      <c r="BC59" s="3"/>
+      <c r="BD59" s="3"/>
+      <c r="BE59" s="3"/>
+      <c r="BF59" s="3"/>
+      <c r="BG59" s="3"/>
+      <c r="BH59" s="3"/>
+      <c r="BI59" s="3"/>
+      <c r="BJ59" s="3"/>
+      <c r="BK59" s="3"/>
+      <c r="BL59" s="3"/>
+      <c r="BM59" s="3"/>
+      <c r="BN59" s="3"/>
+      <c r="BO59" s="3"/>
+      <c r="BP59" s="3"/>
+      <c r="BQ59" s="3"/>
+      <c r="BR59" s="3"/>
+      <c r="BS59" s="3"/>
+      <c r="BT59" s="3"/>
+      <c r="BU59" s="3"/>
+      <c r="BV59" s="3"/>
+      <c r="BW59" s="3"/>
+      <c r="BX59" s="3"/>
+      <c r="BY59" s="3"/>
+      <c r="BZ59" s="3"/>
+      <c r="CA59" s="3"/>
+      <c r="CB59" s="3"/>
+      <c r="CC59" s="3"/>
+      <c r="CD59" s="3"/>
+      <c r="CE59" s="3"/>
+      <c r="CF59" s="3"/>
+      <c r="CG59" s="3"/>
+      <c r="CH59" s="3"/>
+      <c r="CI59" s="3"/>
+      <c r="CJ59" s="3"/>
+      <c r="CK59" s="3"/>
+      <c r="CL59" s="3"/>
+      <c r="CM59" s="3"/>
+      <c r="CN59" s="3"/>
+      <c r="CO59" s="3"/>
+      <c r="CP59" s="3"/>
+      <c r="CQ59" s="3"/>
+      <c r="CR59" s="3"/>
+      <c r="CS59" s="3"/>
+      <c r="CT59" s="3"/>
+      <c r="CU59" s="3"/>
+      <c r="CV59" s="3"/>
+      <c r="CW59" s="3"/>
+      <c r="CX59" s="3"/>
+      <c r="CY59" s="3"/>
+      <c r="CZ59" s="3"/>
+      <c r="DA59" s="3"/>
+      <c r="DB59" s="3"/>
+      <c r="DC59" s="3"/>
+      <c r="DD59" s="3"/>
+      <c r="DE59" s="3"/>
+      <c r="DF59" s="3"/>
+      <c r="DG59" s="3"/>
+      <c r="DH59" s="3"/>
+      <c r="DI59" s="3"/>
+      <c r="DJ59" s="3"/>
+      <c r="DK59" s="3"/>
+      <c r="DL59" s="3"/>
+      <c r="DM59" s="3"/>
+      <c r="DN59" s="3"/>
+      <c r="DO59" s="3"/>
+      <c r="DP59" s="3"/>
+      <c r="DQ59" s="3"/>
+      <c r="DR59" s="3"/>
+      <c r="DS59" s="3"/>
+      <c r="DT59" s="3"/>
+      <c r="DU59" s="3"/>
+      <c r="DV59" s="3"/>
+      <c r="DW59" s="3"/>
+      <c r="DX59" s="3"/>
+      <c r="DY59" s="3"/>
+      <c r="DZ59" s="3"/>
+      <c r="EA59" s="3"/>
+      <c r="EB59" s="3"/>
+      <c r="EC59" s="3"/>
+      <c r="ED59" s="3"/>
+      <c r="EE59" s="3"/>
+      <c r="EF59" s="3"/>
+      <c r="EG59" s="3"/>
+      <c r="EH59" s="3"/>
+      <c r="EI59" s="3"/>
+      <c r="EJ59" s="3"/>
+      <c r="EK59" s="3"/>
+      <c r="EL59" s="3"/>
+      <c r="EM59" s="3"/>
+      <c r="EN59" s="3"/>
+      <c r="EO59" s="3"/>
+      <c r="EP59" s="3"/>
+      <c r="EQ59" s="3"/>
+      <c r="ER59" s="3"/>
+      <c r="ES59" s="3"/>
+      <c r="ET59" s="3"/>
+      <c r="EU59" s="3"/>
+      <c r="EV59" s="3"/>
+      <c r="EW59" s="3"/>
+      <c r="EX59" s="3"/>
+      <c r="EY59" s="3"/>
+      <c r="EZ59" s="3"/>
+      <c r="FA59" s="3"/>
+      <c r="FB59" s="3"/>
+      <c r="FC59" s="3"/>
+      <c r="FD59" s="3"/>
+      <c r="FE59" s="3"/>
+      <c r="FF59" s="3"/>
+      <c r="FG59" s="3"/>
+      <c r="FH59" s="3"/>
+      <c r="FI59" s="3"/>
+      <c r="FJ59" s="3"/>
+      <c r="FK59" s="3"/>
+      <c r="FL59" s="3"/>
+      <c r="FM59" s="3"/>
+      <c r="FN59" s="3"/>
+      <c r="FO59" s="3"/>
+      <c r="FP59" s="3"/>
+      <c r="FQ59" s="3"/>
+      <c r="FR59" s="3"/>
+      <c r="FS59" s="3"/>
+      <c r="FT59" s="3"/>
+      <c r="FU59" s="3"/>
+      <c r="FV59" s="3"/>
+      <c r="FW59" s="3"/>
+      <c r="FX59" s="3"/>
+      <c r="FY59" s="3"/>
+      <c r="FZ59" s="3"/>
+      <c r="GA59" s="3"/>
+      <c r="GB59" s="3"/>
+      <c r="GC59" s="3"/>
+      <c r="GD59" s="3"/>
+      <c r="GE59" s="3"/>
+      <c r="GF59" s="3"/>
+      <c r="GG59" s="3"/>
+      <c r="GH59" s="3"/>
+      <c r="GI59" s="3"/>
+      <c r="GJ59" s="3"/>
+      <c r="GK59" s="3"/>
+      <c r="GL59" s="3"/>
+      <c r="GM59" s="3"/>
+      <c r="GN59" s="3"/>
+      <c r="GO59" s="3"/>
+      <c r="GP59" s="3"/>
+      <c r="GQ59" s="3"/>
+      <c r="GR59" s="3"/>
+      <c r="GS59" s="3"/>
+      <c r="GT59" s="3"/>
+      <c r="GU59" s="3"/>
+      <c r="GV59" s="3"/>
+      <c r="GW59" s="3"/>
+      <c r="GX59" s="3"/>
+      <c r="GY59" s="3"/>
+      <c r="GZ59" s="3"/>
+      <c r="HA59" s="3"/>
+      <c r="HB59" s="3"/>
+      <c r="HC59" s="3"/>
+      <c r="HD59" s="3"/>
+      <c r="HE59" s="3"/>
+      <c r="HF59" s="3"/>
+      <c r="HG59" s="3"/>
+      <c r="HH59" s="3"/>
+      <c r="HI59" s="3"/>
+      <c r="HJ59" s="3"/>
+      <c r="HK59" s="3"/>
+      <c r="HL59" s="3"/>
+      <c r="HM59" s="3"/>
+      <c r="HN59" s="3"/>
+      <c r="HO59" s="3"/>
+      <c r="HP59" s="3"/>
+      <c r="HQ59" s="3"/>
+      <c r="HR59" s="3"/>
+      <c r="HS59" s="3"/>
+      <c r="HT59" s="3"/>
+      <c r="HU59" s="3"/>
+      <c r="HV59" s="3"/>
+      <c r="HW59" s="3"/>
+      <c r="HX59" s="3"/>
+      <c r="HY59" s="3"/>
+      <c r="HZ59" s="3"/>
+      <c r="IA59" s="3"/>
+      <c r="IB59" s="3"/>
+      <c r="IC59" s="3"/>
+      <c r="ID59" s="3"/>
+      <c r="IE59" s="3"/>
+      <c r="IF59" s="3"/>
+      <c r="IG59" s="3"/>
+      <c r="IH59" s="3"/>
+      <c r="II59" s="3"/>
+      <c r="IJ59" s="3"/>
+      <c r="IK59" s="3"/>
+      <c r="IL59" s="3"/>
+      <c r="IM59" s="3"/>
+      <c r="IN59" s="3"/>
+      <c r="IO59" s="3"/>
+      <c r="IP59" s="3"/>
+      <c r="IQ59" s="3"/>
+      <c r="IR59" s="3"/>
+      <c r="IS59" s="3"/>
+      <c r="IT59" s="3"/>
+      <c r="IU59" s="3"/>
+      <c r="IV59" s="3"/>
+      <c r="IW59" s="3"/>
+      <c r="IX59" s="3"/>
+      <c r="IY59" s="3"/>
+      <c r="IZ59" s="3"/>
+      <c r="JA59" s="3"/>
+      <c r="JB59" s="3"/>
+      <c r="JC59" s="3"/>
+      <c r="JD59" s="3"/>
+      <c r="JE59" s="3"/>
+      <c r="JF59" s="3"/>
+      <c r="JG59" s="3"/>
+      <c r="JH59" s="3"/>
+      <c r="JI59" s="3"/>
+      <c r="JJ59" s="3"/>
+      <c r="JK59" s="3"/>
+      <c r="JL59" s="3"/>
+      <c r="JM59" s="3"/>
+      <c r="JN59" s="3"/>
+      <c r="JO59" s="3"/>
+      <c r="JP59" s="3"/>
+      <c r="JQ59" s="3"/>
+      <c r="JR59" s="3"/>
+      <c r="JS59" s="3"/>
+      <c r="JT59" s="3"/>
+      <c r="JU59" s="3"/>
+      <c r="JV59" s="3"/>
+      <c r="JW59" s="3"/>
+      <c r="JX59" s="3"/>
+      <c r="JY59" s="3"/>
+      <c r="JZ59" s="3"/>
+      <c r="KA59" s="3"/>
+      <c r="KB59" s="3"/>
+      <c r="KC59" s="3"/>
+      <c r="KD59" s="3"/>
+      <c r="KE59" s="3"/>
+      <c r="KF59" s="3"/>
+      <c r="KG59" s="3"/>
+      <c r="KH59" s="3"/>
+      <c r="KI59" s="3"/>
+      <c r="KJ59" s="3"/>
+      <c r="KK59" s="3"/>
+      <c r="KL59" s="3"/>
+      <c r="KM59" s="3"/>
+      <c r="KN59" s="3"/>
+      <c r="KO59" s="3"/>
+      <c r="KP59" s="3"/>
+      <c r="KQ59" s="3"/>
+      <c r="KR59" s="3"/>
+      <c r="KS59" s="3"/>
+      <c r="KT59" s="3"/>
+      <c r="KU59" s="3"/>
+      <c r="KV59" s="3"/>
+      <c r="KW59" s="3"/>
+      <c r="KX59" s="3"/>
+      <c r="KY59" s="3"/>
+      <c r="KZ59" s="3"/>
+      <c r="LA59" s="3"/>
+      <c r="LB59" s="3"/>
+      <c r="LC59" s="3"/>
+      <c r="LD59" s="3"/>
+      <c r="LE59" s="3"/>
+      <c r="LF59" s="3"/>
+      <c r="LG59" s="3"/>
+      <c r="LH59" s="3"/>
+      <c r="LI59" s="3"/>
+      <c r="LJ59" s="3"/>
+      <c r="LK59" s="3"/>
+      <c r="LL59" s="3"/>
+      <c r="LM59" s="3"/>
     </row>
     <row r="60" ht="17.4" spans="1:1">
       <c r="A60" s="2" t="s">
@@ -20260,6 +20587,11 @@
         <v>100</v>
       </c>
     </row>
+    <row r="102" ht="17.4" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DLC_test.xlsx
+++ b/DLC_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="S01-A组（冬凌草）" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>index</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>S01-011</t>
-  </si>
-  <si>
-    <t>S01-003</t>
   </si>
   <si>
     <t>S01-013</t>
@@ -1279,10 +1276,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:LM102"/>
+  <dimension ref="A1:LM101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4"/>
@@ -20048,334 +20045,10 @@
       <c r="LL58" s="3"/>
       <c r="LM58" s="3"/>
     </row>
-    <row r="59" ht="17.4" spans="1:325">
+    <row r="59" ht="17.4" spans="1:1">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="3"/>
-      <c r="AG59" s="3"/>
-      <c r="AH59" s="3"/>
-      <c r="AI59" s="3"/>
-      <c r="AJ59" s="3"/>
-      <c r="AK59" s="3"/>
-      <c r="AL59" s="3"/>
-      <c r="AM59" s="3"/>
-      <c r="AN59" s="3"/>
-      <c r="AO59" s="3"/>
-      <c r="AP59" s="3"/>
-      <c r="AQ59" s="3"/>
-      <c r="AR59" s="3"/>
-      <c r="AS59" s="3"/>
-      <c r="AT59" s="3"/>
-      <c r="AU59" s="3"/>
-      <c r="AV59" s="3"/>
-      <c r="AW59" s="3"/>
-      <c r="AX59" s="3"/>
-      <c r="AY59" s="3"/>
-      <c r="AZ59" s="3"/>
-      <c r="BA59" s="3"/>
-      <c r="BB59" s="3"/>
-      <c r="BC59" s="3"/>
-      <c r="BD59" s="3"/>
-      <c r="BE59" s="3"/>
-      <c r="BF59" s="3"/>
-      <c r="BG59" s="3"/>
-      <c r="BH59" s="3"/>
-      <c r="BI59" s="3"/>
-      <c r="BJ59" s="3"/>
-      <c r="BK59" s="3"/>
-      <c r="BL59" s="3"/>
-      <c r="BM59" s="3"/>
-      <c r="BN59" s="3"/>
-      <c r="BO59" s="3"/>
-      <c r="BP59" s="3"/>
-      <c r="BQ59" s="3"/>
-      <c r="BR59" s="3"/>
-      <c r="BS59" s="3"/>
-      <c r="BT59" s="3"/>
-      <c r="BU59" s="3"/>
-      <c r="BV59" s="3"/>
-      <c r="BW59" s="3"/>
-      <c r="BX59" s="3"/>
-      <c r="BY59" s="3"/>
-      <c r="BZ59" s="3"/>
-      <c r="CA59" s="3"/>
-      <c r="CB59" s="3"/>
-      <c r="CC59" s="3"/>
-      <c r="CD59" s="3"/>
-      <c r="CE59" s="3"/>
-      <c r="CF59" s="3"/>
-      <c r="CG59" s="3"/>
-      <c r="CH59" s="3"/>
-      <c r="CI59" s="3"/>
-      <c r="CJ59" s="3"/>
-      <c r="CK59" s="3"/>
-      <c r="CL59" s="3"/>
-      <c r="CM59" s="3"/>
-      <c r="CN59" s="3"/>
-      <c r="CO59" s="3"/>
-      <c r="CP59" s="3"/>
-      <c r="CQ59" s="3"/>
-      <c r="CR59" s="3"/>
-      <c r="CS59" s="3"/>
-      <c r="CT59" s="3"/>
-      <c r="CU59" s="3"/>
-      <c r="CV59" s="3"/>
-      <c r="CW59" s="3"/>
-      <c r="CX59" s="3"/>
-      <c r="CY59" s="3"/>
-      <c r="CZ59" s="3"/>
-      <c r="DA59" s="3"/>
-      <c r="DB59" s="3"/>
-      <c r="DC59" s="3"/>
-      <c r="DD59" s="3"/>
-      <c r="DE59" s="3"/>
-      <c r="DF59" s="3"/>
-      <c r="DG59" s="3"/>
-      <c r="DH59" s="3"/>
-      <c r="DI59" s="3"/>
-      <c r="DJ59" s="3"/>
-      <c r="DK59" s="3"/>
-      <c r="DL59" s="3"/>
-      <c r="DM59" s="3"/>
-      <c r="DN59" s="3"/>
-      <c r="DO59" s="3"/>
-      <c r="DP59" s="3"/>
-      <c r="DQ59" s="3"/>
-      <c r="DR59" s="3"/>
-      <c r="DS59" s="3"/>
-      <c r="DT59" s="3"/>
-      <c r="DU59" s="3"/>
-      <c r="DV59" s="3"/>
-      <c r="DW59" s="3"/>
-      <c r="DX59" s="3"/>
-      <c r="DY59" s="3"/>
-      <c r="DZ59" s="3"/>
-      <c r="EA59" s="3"/>
-      <c r="EB59" s="3"/>
-      <c r="EC59" s="3"/>
-      <c r="ED59" s="3"/>
-      <c r="EE59" s="3"/>
-      <c r="EF59" s="3"/>
-      <c r="EG59" s="3"/>
-      <c r="EH59" s="3"/>
-      <c r="EI59" s="3"/>
-      <c r="EJ59" s="3"/>
-      <c r="EK59" s="3"/>
-      <c r="EL59" s="3"/>
-      <c r="EM59" s="3"/>
-      <c r="EN59" s="3"/>
-      <c r="EO59" s="3"/>
-      <c r="EP59" s="3"/>
-      <c r="EQ59" s="3"/>
-      <c r="ER59" s="3"/>
-      <c r="ES59" s="3"/>
-      <c r="ET59" s="3"/>
-      <c r="EU59" s="3"/>
-      <c r="EV59" s="3"/>
-      <c r="EW59" s="3"/>
-      <c r="EX59" s="3"/>
-      <c r="EY59" s="3"/>
-      <c r="EZ59" s="3"/>
-      <c r="FA59" s="3"/>
-      <c r="FB59" s="3"/>
-      <c r="FC59" s="3"/>
-      <c r="FD59" s="3"/>
-      <c r="FE59" s="3"/>
-      <c r="FF59" s="3"/>
-      <c r="FG59" s="3"/>
-      <c r="FH59" s="3"/>
-      <c r="FI59" s="3"/>
-      <c r="FJ59" s="3"/>
-      <c r="FK59" s="3"/>
-      <c r="FL59" s="3"/>
-      <c r="FM59" s="3"/>
-      <c r="FN59" s="3"/>
-      <c r="FO59" s="3"/>
-      <c r="FP59" s="3"/>
-      <c r="FQ59" s="3"/>
-      <c r="FR59" s="3"/>
-      <c r="FS59" s="3"/>
-      <c r="FT59" s="3"/>
-      <c r="FU59" s="3"/>
-      <c r="FV59" s="3"/>
-      <c r="FW59" s="3"/>
-      <c r="FX59" s="3"/>
-      <c r="FY59" s="3"/>
-      <c r="FZ59" s="3"/>
-      <c r="GA59" s="3"/>
-      <c r="GB59" s="3"/>
-      <c r="GC59" s="3"/>
-      <c r="GD59" s="3"/>
-      <c r="GE59" s="3"/>
-      <c r="GF59" s="3"/>
-      <c r="GG59" s="3"/>
-      <c r="GH59" s="3"/>
-      <c r="GI59" s="3"/>
-      <c r="GJ59" s="3"/>
-      <c r="GK59" s="3"/>
-      <c r="GL59" s="3"/>
-      <c r="GM59" s="3"/>
-      <c r="GN59" s="3"/>
-      <c r="GO59" s="3"/>
-      <c r="GP59" s="3"/>
-      <c r="GQ59" s="3"/>
-      <c r="GR59" s="3"/>
-      <c r="GS59" s="3"/>
-      <c r="GT59" s="3"/>
-      <c r="GU59" s="3"/>
-      <c r="GV59" s="3"/>
-      <c r="GW59" s="3"/>
-      <c r="GX59" s="3"/>
-      <c r="GY59" s="3"/>
-      <c r="GZ59" s="3"/>
-      <c r="HA59" s="3"/>
-      <c r="HB59" s="3"/>
-      <c r="HC59" s="3"/>
-      <c r="HD59" s="3"/>
-      <c r="HE59" s="3"/>
-      <c r="HF59" s="3"/>
-      <c r="HG59" s="3"/>
-      <c r="HH59" s="3"/>
-      <c r="HI59" s="3"/>
-      <c r="HJ59" s="3"/>
-      <c r="HK59" s="3"/>
-      <c r="HL59" s="3"/>
-      <c r="HM59" s="3"/>
-      <c r="HN59" s="3"/>
-      <c r="HO59" s="3"/>
-      <c r="HP59" s="3"/>
-      <c r="HQ59" s="3"/>
-      <c r="HR59" s="3"/>
-      <c r="HS59" s="3"/>
-      <c r="HT59" s="3"/>
-      <c r="HU59" s="3"/>
-      <c r="HV59" s="3"/>
-      <c r="HW59" s="3"/>
-      <c r="HX59" s="3"/>
-      <c r="HY59" s="3"/>
-      <c r="HZ59" s="3"/>
-      <c r="IA59" s="3"/>
-      <c r="IB59" s="3"/>
-      <c r="IC59" s="3"/>
-      <c r="ID59" s="3"/>
-      <c r="IE59" s="3"/>
-      <c r="IF59" s="3"/>
-      <c r="IG59" s="3"/>
-      <c r="IH59" s="3"/>
-      <c r="II59" s="3"/>
-      <c r="IJ59" s="3"/>
-      <c r="IK59" s="3"/>
-      <c r="IL59" s="3"/>
-      <c r="IM59" s="3"/>
-      <c r="IN59" s="3"/>
-      <c r="IO59" s="3"/>
-      <c r="IP59" s="3"/>
-      <c r="IQ59" s="3"/>
-      <c r="IR59" s="3"/>
-      <c r="IS59" s="3"/>
-      <c r="IT59" s="3"/>
-      <c r="IU59" s="3"/>
-      <c r="IV59" s="3"/>
-      <c r="IW59" s="3"/>
-      <c r="IX59" s="3"/>
-      <c r="IY59" s="3"/>
-      <c r="IZ59" s="3"/>
-      <c r="JA59" s="3"/>
-      <c r="JB59" s="3"/>
-      <c r="JC59" s="3"/>
-      <c r="JD59" s="3"/>
-      <c r="JE59" s="3"/>
-      <c r="JF59" s="3"/>
-      <c r="JG59" s="3"/>
-      <c r="JH59" s="3"/>
-      <c r="JI59" s="3"/>
-      <c r="JJ59" s="3"/>
-      <c r="JK59" s="3"/>
-      <c r="JL59" s="3"/>
-      <c r="JM59" s="3"/>
-      <c r="JN59" s="3"/>
-      <c r="JO59" s="3"/>
-      <c r="JP59" s="3"/>
-      <c r="JQ59" s="3"/>
-      <c r="JR59" s="3"/>
-      <c r="JS59" s="3"/>
-      <c r="JT59" s="3"/>
-      <c r="JU59" s="3"/>
-      <c r="JV59" s="3"/>
-      <c r="JW59" s="3"/>
-      <c r="JX59" s="3"/>
-      <c r="JY59" s="3"/>
-      <c r="JZ59" s="3"/>
-      <c r="KA59" s="3"/>
-      <c r="KB59" s="3"/>
-      <c r="KC59" s="3"/>
-      <c r="KD59" s="3"/>
-      <c r="KE59" s="3"/>
-      <c r="KF59" s="3"/>
-      <c r="KG59" s="3"/>
-      <c r="KH59" s="3"/>
-      <c r="KI59" s="3"/>
-      <c r="KJ59" s="3"/>
-      <c r="KK59" s="3"/>
-      <c r="KL59" s="3"/>
-      <c r="KM59" s="3"/>
-      <c r="KN59" s="3"/>
-      <c r="KO59" s="3"/>
-      <c r="KP59" s="3"/>
-      <c r="KQ59" s="3"/>
-      <c r="KR59" s="3"/>
-      <c r="KS59" s="3"/>
-      <c r="KT59" s="3"/>
-      <c r="KU59" s="3"/>
-      <c r="KV59" s="3"/>
-      <c r="KW59" s="3"/>
-      <c r="KX59" s="3"/>
-      <c r="KY59" s="3"/>
-      <c r="KZ59" s="3"/>
-      <c r="LA59" s="3"/>
-      <c r="LB59" s="3"/>
-      <c r="LC59" s="3"/>
-      <c r="LD59" s="3"/>
-      <c r="LE59" s="3"/>
-      <c r="LF59" s="3"/>
-      <c r="LG59" s="3"/>
-      <c r="LH59" s="3"/>
-      <c r="LI59" s="3"/>
-      <c r="LJ59" s="3"/>
-      <c r="LK59" s="3"/>
-      <c r="LL59" s="3"/>
-      <c r="LM59" s="3"/>
     </row>
     <row r="60" ht="17.4" spans="1:1">
       <c r="A60" s="2" t="s">
@@ -20587,11 +20260,6 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" ht="17.4" spans="1:1">
-      <c r="A102" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/DLC_test.xlsx
+++ b/DLC_test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>index</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>S01-011</t>
+  </si>
+  <si>
+    <t>S01-003</t>
   </si>
   <si>
     <t>S01-013</t>
@@ -1276,7 +1279,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:LM101"/>
+  <dimension ref="A1:LM102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -20045,10 +20048,334 @@
       <c r="LL58" s="3"/>
       <c r="LM58" s="3"/>
     </row>
-    <row r="59" ht="17.4" spans="1:1">
+    <row r="59" ht="17.4" spans="1:325">
       <c r="A59" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
+      <c r="AF59" s="3"/>
+      <c r="AG59" s="3"/>
+      <c r="AH59" s="3"/>
+      <c r="AI59" s="3"/>
+      <c r="AJ59" s="3"/>
+      <c r="AK59" s="3"/>
+      <c r="AL59" s="3"/>
+      <c r="AM59" s="3"/>
+      <c r="AN59" s="3"/>
+      <c r="AO59" s="3"/>
+      <c r="AP59" s="3"/>
+      <c r="AQ59" s="3"/>
+      <c r="AR59" s="3"/>
+      <c r="AS59" s="3"/>
+      <c r="AT59" s="3"/>
+      <c r="AU59" s="3"/>
+      <c r="AV59" s="3"/>
+      <c r="AW59" s="3"/>
+      <c r="AX59" s="3"/>
+      <c r="AY59" s="3"/>
+      <c r="AZ59" s="3"/>
+      <c r="BA59" s="3"/>
+      <c r="BB59" s="3"/>
+      <c r="BC59" s="3"/>
+      <c r="BD59" s="3"/>
+      <c r="BE59" s="3"/>
+      <c r="BF59" s="3"/>
+      <c r="BG59" s="3"/>
+      <c r="BH59" s="3"/>
+      <c r="BI59" s="3"/>
+      <c r="BJ59" s="3"/>
+      <c r="BK59" s="3"/>
+      <c r="BL59" s="3"/>
+      <c r="BM59" s="3"/>
+      <c r="BN59" s="3"/>
+      <c r="BO59" s="3"/>
+      <c r="BP59" s="3"/>
+      <c r="BQ59" s="3"/>
+      <c r="BR59" s="3"/>
+      <c r="BS59" s="3"/>
+      <c r="BT59" s="3"/>
+      <c r="BU59" s="3"/>
+      <c r="BV59" s="3"/>
+      <c r="BW59" s="3"/>
+      <c r="BX59" s="3"/>
+      <c r="BY59" s="3"/>
+      <c r="BZ59" s="3"/>
+      <c r="CA59" s="3"/>
+      <c r="CB59" s="3"/>
+      <c r="CC59" s="3"/>
+      <c r="CD59" s="3"/>
+      <c r="CE59" s="3"/>
+      <c r="CF59" s="3"/>
+      <c r="CG59" s="3"/>
+      <c r="CH59" s="3"/>
+      <c r="CI59" s="3"/>
+      <c r="CJ59" s="3"/>
+      <c r="CK59" s="3"/>
+      <c r="CL59" s="3"/>
+      <c r="CM59" s="3"/>
+      <c r="CN59" s="3"/>
+      <c r="CO59" s="3"/>
+      <c r="CP59" s="3"/>
+      <c r="CQ59" s="3"/>
+      <c r="CR59" s="3"/>
+      <c r="CS59" s="3"/>
+      <c r="CT59" s="3"/>
+      <c r="CU59" s="3"/>
+      <c r="CV59" s="3"/>
+      <c r="CW59" s="3"/>
+      <c r="CX59" s="3"/>
+      <c r="CY59" s="3"/>
+      <c r="CZ59" s="3"/>
+      <c r="DA59" s="3"/>
+      <c r="DB59" s="3"/>
+      <c r="DC59" s="3"/>
+      <c r="DD59" s="3"/>
+      <c r="DE59" s="3"/>
+      <c r="DF59" s="3"/>
+      <c r="DG59" s="3"/>
+      <c r="DH59" s="3"/>
+      <c r="DI59" s="3"/>
+      <c r="DJ59" s="3"/>
+      <c r="DK59" s="3"/>
+      <c r="DL59" s="3"/>
+      <c r="DM59" s="3"/>
+      <c r="DN59" s="3"/>
+      <c r="DO59" s="3"/>
+      <c r="DP59" s="3"/>
+      <c r="DQ59" s="3"/>
+      <c r="DR59" s="3"/>
+      <c r="DS59" s="3"/>
+      <c r="DT59" s="3"/>
+      <c r="DU59" s="3"/>
+      <c r="DV59" s="3"/>
+      <c r="DW59" s="3"/>
+      <c r="DX59" s="3"/>
+      <c r="DY59" s="3"/>
+      <c r="DZ59" s="3"/>
+      <c r="EA59" s="3"/>
+      <c r="EB59" s="3"/>
+      <c r="EC59" s="3"/>
+      <c r="ED59" s="3"/>
+      <c r="EE59" s="3"/>
+      <c r="EF59" s="3"/>
+      <c r="EG59" s="3"/>
+      <c r="EH59" s="3"/>
+      <c r="EI59" s="3"/>
+      <c r="EJ59" s="3"/>
+      <c r="EK59" s="3"/>
+      <c r="EL59" s="3"/>
+      <c r="EM59" s="3"/>
+      <c r="EN59" s="3"/>
+      <c r="EO59" s="3"/>
+      <c r="EP59" s="3"/>
+      <c r="EQ59" s="3"/>
+      <c r="ER59" s="3"/>
+      <c r="ES59" s="3"/>
+      <c r="ET59" s="3"/>
+      <c r="EU59" s="3"/>
+      <c r="EV59" s="3"/>
+      <c r="EW59" s="3"/>
+      <c r="EX59" s="3"/>
+      <c r="EY59" s="3"/>
+      <c r="EZ59" s="3"/>
+      <c r="FA59" s="3"/>
+      <c r="FB59" s="3"/>
+      <c r="FC59" s="3"/>
+      <c r="FD59" s="3"/>
+      <c r="FE59" s="3"/>
+      <c r="FF59" s="3"/>
+      <c r="FG59" s="3"/>
+      <c r="FH59" s="3"/>
+      <c r="FI59" s="3"/>
+      <c r="FJ59" s="3"/>
+      <c r="FK59" s="3"/>
+      <c r="FL59" s="3"/>
+      <c r="FM59" s="3"/>
+      <c r="FN59" s="3"/>
+      <c r="FO59" s="3"/>
+      <c r="FP59" s="3"/>
+      <c r="FQ59" s="3"/>
+      <c r="FR59" s="3"/>
+      <c r="FS59" s="3"/>
+      <c r="FT59" s="3"/>
+      <c r="FU59" s="3"/>
+      <c r="FV59" s="3"/>
+      <c r="FW59" s="3"/>
+      <c r="FX59" s="3"/>
+      <c r="FY59" s="3"/>
+      <c r="FZ59" s="3"/>
+      <c r="GA59" s="3"/>
+      <c r="GB59" s="3"/>
+      <c r="GC59" s="3"/>
+      <c r="GD59" s="3"/>
+      <c r="GE59" s="3"/>
+      <c r="GF59" s="3"/>
+      <c r="GG59" s="3"/>
+      <c r="GH59" s="3"/>
+      <c r="GI59" s="3"/>
+      <c r="GJ59" s="3"/>
+      <c r="GK59" s="3"/>
+      <c r="GL59" s="3"/>
+      <c r="GM59" s="3"/>
+      <c r="GN59" s="3"/>
+      <c r="GO59" s="3"/>
+      <c r="GP59" s="3"/>
+      <c r="GQ59" s="3"/>
+      <c r="GR59" s="3"/>
+      <c r="GS59" s="3"/>
+      <c r="GT59" s="3"/>
+      <c r="GU59" s="3"/>
+      <c r="GV59" s="3"/>
+      <c r="GW59" s="3"/>
+      <c r="GX59" s="3"/>
+      <c r="GY59" s="3"/>
+      <c r="GZ59" s="3"/>
+      <c r="HA59" s="3"/>
+      <c r="HB59" s="3"/>
+      <c r="HC59" s="3"/>
+      <c r="HD59" s="3"/>
+      <c r="HE59" s="3"/>
+      <c r="HF59" s="3"/>
+      <c r="HG59" s="3"/>
+      <c r="HH59" s="3"/>
+      <c r="HI59" s="3"/>
+      <c r="HJ59" s="3"/>
+      <c r="HK59" s="3"/>
+      <c r="HL59" s="3"/>
+      <c r="HM59" s="3"/>
+      <c r="HN59" s="3"/>
+      <c r="HO59" s="3"/>
+      <c r="HP59" s="3"/>
+      <c r="HQ59" s="3"/>
+      <c r="HR59" s="3"/>
+      <c r="HS59" s="3"/>
+      <c r="HT59" s="3"/>
+      <c r="HU59" s="3"/>
+      <c r="HV59" s="3"/>
+      <c r="HW59" s="3"/>
+      <c r="HX59" s="3"/>
+      <c r="HY59" s="3"/>
+      <c r="HZ59" s="3"/>
+      <c r="IA59" s="3"/>
+      <c r="IB59" s="3"/>
+      <c r="IC59" s="3"/>
+      <c r="ID59" s="3"/>
+      <c r="IE59" s="3"/>
+      <c r="IF59" s="3"/>
+      <c r="IG59" s="3"/>
+      <c r="IH59" s="3"/>
+      <c r="II59" s="3"/>
+      <c r="IJ59" s="3"/>
+      <c r="IK59" s="3"/>
+      <c r="IL59" s="3"/>
+      <c r="IM59" s="3"/>
+      <c r="IN59" s="3"/>
+      <c r="IO59" s="3"/>
+      <c r="IP59" s="3"/>
+      <c r="IQ59" s="3"/>
+      <c r="IR59" s="3"/>
+      <c r="IS59" s="3"/>
+      <c r="IT59" s="3"/>
+      <c r="IU59" s="3"/>
+      <c r="IV59" s="3"/>
+      <c r="IW59" s="3"/>
+      <c r="IX59" s="3"/>
+      <c r="IY59" s="3"/>
+      <c r="IZ59" s="3"/>
+      <c r="JA59" s="3"/>
+      <c r="JB59" s="3"/>
+      <c r="JC59" s="3"/>
+      <c r="JD59" s="3"/>
+      <c r="JE59" s="3"/>
+      <c r="JF59" s="3"/>
+      <c r="JG59" s="3"/>
+      <c r="JH59" s="3"/>
+      <c r="JI59" s="3"/>
+      <c r="JJ59" s="3"/>
+      <c r="JK59" s="3"/>
+      <c r="JL59" s="3"/>
+      <c r="JM59" s="3"/>
+      <c r="JN59" s="3"/>
+      <c r="JO59" s="3"/>
+      <c r="JP59" s="3"/>
+      <c r="JQ59" s="3"/>
+      <c r="JR59" s="3"/>
+      <c r="JS59" s="3"/>
+      <c r="JT59" s="3"/>
+      <c r="JU59" s="3"/>
+      <c r="JV59" s="3"/>
+      <c r="JW59" s="3"/>
+      <c r="JX59" s="3"/>
+      <c r="JY59" s="3"/>
+      <c r="JZ59" s="3"/>
+      <c r="KA59" s="3"/>
+      <c r="KB59" s="3"/>
+      <c r="KC59" s="3"/>
+      <c r="KD59" s="3"/>
+      <c r="KE59" s="3"/>
+      <c r="KF59" s="3"/>
+      <c r="KG59" s="3"/>
+      <c r="KH59" s="3"/>
+      <c r="KI59" s="3"/>
+      <c r="KJ59" s="3"/>
+      <c r="KK59" s="3"/>
+      <c r="KL59" s="3"/>
+      <c r="KM59" s="3"/>
+      <c r="KN59" s="3"/>
+      <c r="KO59" s="3"/>
+      <c r="KP59" s="3"/>
+      <c r="KQ59" s="3"/>
+      <c r="KR59" s="3"/>
+      <c r="KS59" s="3"/>
+      <c r="KT59" s="3"/>
+      <c r="KU59" s="3"/>
+      <c r="KV59" s="3"/>
+      <c r="KW59" s="3"/>
+      <c r="KX59" s="3"/>
+      <c r="KY59" s="3"/>
+      <c r="KZ59" s="3"/>
+      <c r="LA59" s="3"/>
+      <c r="LB59" s="3"/>
+      <c r="LC59" s="3"/>
+      <c r="LD59" s="3"/>
+      <c r="LE59" s="3"/>
+      <c r="LF59" s="3"/>
+      <c r="LG59" s="3"/>
+      <c r="LH59" s="3"/>
+      <c r="LI59" s="3"/>
+      <c r="LJ59" s="3"/>
+      <c r="LK59" s="3"/>
+      <c r="LL59" s="3"/>
+      <c r="LM59" s="3"/>
     </row>
     <row r="60" ht="17.4" spans="1:1">
       <c r="A60" s="2" t="s">
@@ -20260,6 +20587,11 @@
         <v>100</v>
       </c>
     </row>
+    <row r="102" ht="17.4" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
